--- a/Data_science_outputs_highlands/Graphs/Third/1/Montlhy_consumption_4.xlsx
+++ b/Data_science_outputs_highlands/Graphs/Third/1/Montlhy_consumption_4.xlsx
@@ -475,16 +475,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6098.244439783336</v>
+        <v>4187.691732483336</v>
       </c>
       <c r="C2" t="n">
-        <v>3372.516714616669</v>
+        <v>609.765101016667</v>
       </c>
       <c r="D2" t="n">
-        <v>1311.985749583333</v>
+        <v>194.7474995666666</v>
       </c>
       <c r="E2" t="n">
-        <v>1128.319309066667</v>
+        <v>1410.75378115</v>
       </c>
       <c r="F2" t="n">
         <v>11.904</v>
@@ -498,16 +498,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5665.614678750002</v>
+        <v>3999.894156833335</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1236.956875383333</v>
+        <v>172.9687165666666</v>
       </c>
       <c r="E3" t="n">
-        <v>1122.1663292</v>
+        <v>1160.272053116667</v>
       </c>
       <c r="F3" t="n">
         <v>32.016</v>
@@ -521,16 +521,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6034.604235033336</v>
+        <v>4086.503630550002</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1331.344105333333</v>
+        <v>185.2759720833333</v>
       </c>
       <c r="E4" t="n">
-        <v>1351.48397225</v>
+        <v>1323.325353983334</v>
       </c>
       <c r="F4" t="n">
         <v>56.544</v>
@@ -544,16 +544,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5991.36561296667</v>
+        <v>3959.782317100002</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1281.84396005</v>
+        <v>179.95694225</v>
       </c>
       <c r="E5" t="n">
-        <v>1133.906195233333</v>
+        <v>1100.21498985</v>
       </c>
       <c r="F5" t="n">
         <v>76.68000000000001</v>
@@ -567,16 +567,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6153.580209250003</v>
+        <v>4127.693577233335</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1317.86152015</v>
+        <v>192.6246426333333</v>
       </c>
       <c r="E6" t="n">
-        <v>1220.974174916667</v>
+        <v>1198.4007481</v>
       </c>
       <c r="F6" t="n">
         <v>101.928</v>
@@ -590,16 +590,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5936.17792136667</v>
+        <v>4177.031990683335</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1276.792679633333</v>
+        <v>180.8013717333333</v>
       </c>
       <c r="E7" t="n">
-        <v>1108.46486935</v>
+        <v>1351.10589695</v>
       </c>
       <c r="F7" t="n">
         <v>120.6</v>
@@ -613,16 +613,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6116.659380766669</v>
+        <v>4040.781443450002</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1321.0839449</v>
+        <v>180.6855072833333</v>
       </c>
       <c r="E8" t="n">
-        <v>1227.366442866667</v>
+        <v>1313.798538233333</v>
       </c>
       <c r="F8" t="n">
         <v>147.312</v>
@@ -636,16 +636,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>5960.951071250002</v>
+        <v>4040.068723200002</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1318.0952261</v>
+        <v>186.2705097333333</v>
       </c>
       <c r="E9" t="n">
-        <v>1251.147588333333</v>
+        <v>1253.822584883333</v>
       </c>
       <c r="F9" t="n">
         <v>170.376</v>
@@ -659,16 +659,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>5731.943960483335</v>
+        <v>3977.672464666668</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1271.70674435</v>
+        <v>183.7567586166666</v>
       </c>
       <c r="E10" t="n">
-        <v>1272.066631566667</v>
+        <v>1499.302298033333</v>
       </c>
       <c r="F10" t="n">
         <v>186.84</v>
@@ -682,16 +682,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>5949.48009376667</v>
+        <v>3965.512402416669</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1325.162964216667</v>
+        <v>190.4018749833333</v>
       </c>
       <c r="E11" t="n">
-        <v>1256.579395583333</v>
+        <v>1261.59482665</v>
       </c>
       <c r="F11" t="n">
         <v>215.76</v>
@@ -705,16 +705,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>5638.870797166669</v>
+        <v>4044.022293600002</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1277.24021125</v>
+        <v>181.0173869333333</v>
       </c>
       <c r="E12" t="n">
-        <v>1113.241444533333</v>
+        <v>1085.9713794</v>
       </c>
       <c r="F12" t="n">
         <v>230.76</v>
@@ -728,16 +728,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>5877.559769316669</v>
+        <v>4086.056197566669</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1279.87185485</v>
+        <v>178.90045745</v>
       </c>
       <c r="E13" t="n">
-        <v>1013.248365216667</v>
+        <v>1205.686139833333</v>
       </c>
       <c r="F13" t="n">
         <v>252.36</v>
